--- a/data/trans_dic/P55_8-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P55_8-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +64,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +524,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de un televisor</t>
+          <t>Población que no puede permitirse disponer de un televisor (tasa de respuesta: 99,47%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +545,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -554,27 +574,57 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -587,6 +637,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>99,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>98,64%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>96,49%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>98,65%</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>96,68%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>98,63%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>98,82%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>97,56%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>98,95%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>97,18%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>98,94%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>98,73%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>97,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>96,94%</t>
         </is>
       </c>
     </row>
@@ -639,32 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>98,38; 99,72</t>
+          <t>98,36; 99,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>94,37; 97,77</t>
+          <t>96,85; 99,53</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>97,74; 99,33</t>
+          <t>94,18; 97,79</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>96,5; 98,37</t>
+          <t>94,97; 97,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>98,34; 99,39</t>
+          <t>97,58; 99,25</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>95,94; 97,84</t>
+          <t>97,77; 99,52</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>96,42; 98,41</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>95,94; 98,18</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>98,32; 99,39</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>97,76; 99,33</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>96,0; 97,91</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>95,92; 97,77</t>
         </is>
       </c>
     </row>
@@ -681,32 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>98,71%</t>
+          <t>98,65%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>97,97%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>98,57%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>97,48%</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>97,53%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>97,43%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>96,6%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>96,57%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>98,09%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>97,49%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>98,04%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>97,29%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>97,62%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>97,51%</t>
         </is>
       </c>
     </row>
@@ -719,32 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>96,5; 99,55</t>
+          <t>96,46; 99,63</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,45; 99,65</t>
+          <t>92,85; 99,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>95,73; 98,64</t>
+          <t>96,42; 99,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>93,21; 98,52</t>
+          <t>94,71; 99,05</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,86; 98,92</t>
+          <t>95,5; 98,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>95,65; 98,8</t>
+          <t>89,3; 98,83</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>93,1; 98,43</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>94,38; 99,02</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>96,72; 98,95</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>93,26; 98,94</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>95,7; 98,81</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>95,76; 98,73</t>
         </is>
       </c>
     </row>
@@ -766,25 +942,55 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>100,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -799,7 +1005,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,66; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -809,7 +1015,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>98,88; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -819,10 +1025,40 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>99,39; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -841,32 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,14%</t>
+          <t>99,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>98,54%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>96,99%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>98,36%</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>96,89%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>98,33%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>98,1%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>97,34%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>98,74%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>97,25%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>98,72%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>98,31%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>97,17%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>97,07%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1145,1081 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,29; 99,59</t>
+          <t>98,23; 99,59</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>95,29; 98,05</t>
+          <t>96,45; 99,36</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>97,52; 98,97</t>
+          <t>95,17; 98,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,36; 98,27</t>
+          <t>95,35; 97,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>98,2; 99,14</t>
+          <t>97,46; 98,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,21; 97,87</t>
+          <t>95,1; 99,04</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>96,27; 98,19</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>96,16; 98,11</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>98,21; 99,15</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>96,76; 99,01</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>96,15; 97,83</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>96,18; 97,74</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de un televisor (tasa de respuesta: 99,47%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>670.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>508.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>656.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>641.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>838.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>630.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>827.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>859.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1508.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1138.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1483.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1500.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>1627810</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1599934</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>218945</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>218090</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1765753</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>1774602</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>229496</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>229084</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3393564</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>3374536</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>448441</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>447174</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>1612810; 1635573</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1570814; 1614369</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>213703; 221901</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>214222; 220848</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1746901; 1776766</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>1755840; 1787246</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>226838; 231507</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>226164; 231438</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>3372524; 3408925</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3341412; 3394969</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>443693; 452499</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>442477; 451018</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>504.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>415.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>240.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>616.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>495.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1120.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>910.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>451.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>1322144</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1345919</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>70448</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>70099</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1327956</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1323318</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>62114</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>64493</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2650099</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2669237</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>132563</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>134592</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1292734; 1335219</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>1275512; 1369560</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>68907; 71236</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>68076; 71194</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1301665; 1344213</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>1223288; 1353789</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>59879; 63308</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>62430; 65501</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>2614596; 2674840</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>2558810; 2714616</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>129943; 134169</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>132178; 136275</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>171.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>313.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>221.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>420226</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>419649</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>411895</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>406133</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>832121</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>825782</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1316.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1023.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>883.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>881.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1625.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1246.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1051.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1077.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>2941.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>2269.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1934.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1958.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3370180</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>3365502</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>289394</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>288189</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3505603</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3504052</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>291610</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>293576</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6875783</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6869554</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>581004</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>581766</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>3339822; 3386257</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>3294152; 3393566</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>283986; 292861</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>283623; 291157</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>3474482; 3526812</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3396796; 3537538</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>288388; 294141</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>290273; 296163</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>6840448; 6905913</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>6761084; 6918353</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>574948; 585007</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>576413; 585785</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
